--- a/plots/countries/plot data/Finland.xlsx
+++ b/plots/countries/plot data/Finland.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>7.31525442665909</v>
+        <v>7.797111815737</v>
       </c>
     </row>
     <row r="3">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-23.1748652253355</v>
+        <v>-22.4358643153354</v>
       </c>
     </row>
     <row r="10">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>6.8845828049416</v>
+        <v>7.26814263984939</v>
       </c>
     </row>
     <row r="12">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-35.5799472080034</v>
+        <v>-34.8512454170034</v>
       </c>
     </row>
     <row r="19">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>6.37905516000824</v>
+        <v>6.66354084676283</v>
       </c>
     </row>
     <row r="21">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-29.5468295810028</v>
+        <v>-28.8569077660028</v>
       </c>
     </row>
     <row r="28">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>6.63923471705954</v>
+        <v>6.8911883015292</v>
       </c>
     </row>
     <row r="30">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-30.1840433450027</v>
+        <v>-29.5330310766693</v>
       </c>
     </row>
     <row r="37">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>6.6809728468967</v>
+        <v>6.96519088116852</v>
       </c>
     </row>
     <row r="39">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-23.3704723333353</v>
+        <v>-22.7730820296686</v>
       </c>
     </row>
     <row r="46">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>6.46938987239389</v>
+        <v>6.85418681127679</v>
       </c>
     </row>
     <row r="48">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-22.0004812620018</v>
+        <v>-21.4691945453352</v>
       </c>
     </row>
     <row r="55">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>6.59761787795024</v>
+        <v>6.87224566136498</v>
       </c>
     </row>
     <row r="57">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-28.3069409620025</v>
+        <v>-27.8017083370025</v>
       </c>
     </row>
     <row r="64">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>6.67855804022079</v>
+        <v>6.96391333443151</v>
       </c>
     </row>
     <row r="66">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-23.6594428643352</v>
+        <v>-23.1773862153351</v>
       </c>
     </row>
     <row r="73">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>6.49047703463401</v>
+        <v>6.75390162168888</v>
       </c>
     </row>
     <row r="75">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-21.5937393540017</v>
+        <v>-21.1165630650016</v>
       </c>
     </row>
     <row r="82">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>6.38371886679236</v>
+        <v>6.65336573170638</v>
       </c>
     </row>
     <row r="84">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-21.7665211560017</v>
+        <v>-21.2761401720017</v>
       </c>
     </row>
     <row r="91">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>6.35559152551075</v>
+        <v>6.59738914660473</v>
       </c>
     </row>
     <row r="93">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-21.2577684700016</v>
+        <v>-20.7723978110016</v>
       </c>
     </row>
     <row r="100">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>6.33118692821628</v>
+        <v>6.59978736567408</v>
       </c>
     </row>
     <row r="102">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-21.8759636860019</v>
+        <v>-21.3781519546685</v>
       </c>
     </row>
     <row r="109">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>6.39347537462901</v>
+        <v>6.64571834269159</v>
       </c>
     </row>
     <row r="111">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-22.948801940002</v>
+        <v>-22.4073037136686</v>
       </c>
     </row>
     <row r="118">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>6.2600422783242</v>
+        <v>6.50540356205374</v>
       </c>
     </row>
     <row r="120">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-23.3664121146686</v>
+        <v>-22.8171042093353</v>
       </c>
     </row>
     <row r="127">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>6.21701534685096</v>
+        <v>6.39022265073219</v>
       </c>
     </row>
     <row r="129">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-24.7883872650021</v>
+        <v>-24.2035774686687</v>
       </c>
     </row>
     <row r="136">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>6.2169476667285</v>
+        <v>6.39428145563747</v>
       </c>
     </row>
     <row r="138">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-24.850366163669</v>
+        <v>-24.2414204933357</v>
       </c>
     </row>
     <row r="145">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>6.19960838191677</v>
+        <v>6.40314271546346</v>
       </c>
     </row>
     <row r="147">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-28.7475377066691</v>
+        <v>-28.1540037186691</v>
       </c>
     </row>
     <row r="154">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>6.16506880039957</v>
+        <v>6.32905343185451</v>
       </c>
     </row>
     <row r="156">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-19.1009102040015</v>
+        <v>-18.6547632046682</v>
       </c>
     </row>
     <row r="163">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>6.26979714040688</v>
+        <v>6.44312184047278</v>
       </c>
     </row>
     <row r="165">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>12.745342545365</v>
+        <v>12.74534254563</v>
       </c>
     </row>
     <row r="170">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-21.6817547683354</v>
+        <v>-21.2892050013354</v>
       </c>
     </row>
     <row r="172">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>6.19286545109087</v>
+        <v>6.30378658406374</v>
       </c>
     </row>
     <row r="174">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>6.004594020831</v>
+        <v>6.004444200831</v>
       </c>
     </row>
     <row r="175">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-33.9063322656702</v>
+        <v>-32.5235721850034</v>
       </c>
     </row>
     <row r="181">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>6.25451624456172</v>
+        <v>6.49317978936756</v>
       </c>
     </row>
     <row r="183">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>6.436001740373</v>
+        <v>6.435926830373</v>
       </c>
     </row>
     <row r="184">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>12.668070076366</v>
+        <v>12.668070076631</v>
       </c>
     </row>
     <row r="188">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-22.3781680903354</v>
+        <v>-21.0391018903353</v>
       </c>
     </row>
     <row r="190">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>6.10569245342214</v>
+        <v>6.32569651700813</v>
       </c>
     </row>
     <row r="192">
@@ -4305,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="n">
-        <v>5.59199278899</v>
+        <v>5.59126294399</v>
       </c>
     </row>
     <row r="193">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>12.49035203193</v>
+        <v>12.490348997109</v>
       </c>
     </row>
     <row r="197">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-21.6201287793353</v>
+        <v>-20.553049920002</v>
       </c>
     </row>
     <row r="199">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>6.09087413885784</v>
+        <v>6.22514244157317</v>
       </c>
     </row>
     <row r="201">
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="F201" t="n">
-        <v>5.904382040972</v>
+        <v>5.903491545972</v>
       </c>
     </row>
     <row r="202">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>12.182085564927</v>
+        <v>12.182702877178</v>
       </c>
     </row>
     <row r="206">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-23.3417226553356</v>
+        <v>-22.3562941920021</v>
       </c>
     </row>
     <row r="208">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>6.23258678840694</v>
+        <v>6.40434132938724</v>
       </c>
     </row>
     <row r="210">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>5.474050329023</v>
+        <v>5.472169439023</v>
       </c>
     </row>
     <row r="211">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>11.959575997935</v>
+        <v>11.961516496649</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>5.73572699645141</v>
+        <v>5.73572700132937</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-16.5567957863349</v>
+        <v>-15.6044145696682</v>
       </c>
     </row>
     <row r="217">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>6.2912150265251</v>
+        <v>6.48120383353387</v>
       </c>
     </row>
     <row r="219">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>5.294485700388</v>
+        <v>5.291556670388</v>
       </c>
     </row>
     <row r="220">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>10.837221597396</v>
+        <v>10.840237967131</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>5.49378048395923</v>
+        <v>5.49378203989344</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>-17.5414043000016</v>
+        <v>-16.4753341306682</v>
       </c>
     </row>
     <row r="226">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>6.2817670267133</v>
+        <v>6.39605164113522</v>
       </c>
     </row>
     <row r="228">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>5.185004376471</v>
+        <v>5.180893716471</v>
       </c>
     </row>
     <row r="229">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>10.845433147915</v>
+        <v>10.850029717728</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>5.63482662839119</v>
+        <v>5.63480473402689</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-13.1310759823345</v>
+        <v>-11.3210281486677</v>
       </c>
     </row>
     <row r="235">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>6.35482683878774</v>
+        <v>6.49388169348866</v>
       </c>
     </row>
     <row r="237">
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="F237" t="n">
-        <v>5.255025809587</v>
+        <v>5.251317389587</v>
       </c>
     </row>
     <row r="238">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>12.056822700644</v>
+        <v>12.060976580973</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>5.84495086482927</v>
+        <v>5.84494426267955</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>-9.49266803833409</v>
+        <v>-6.68145132566718</v>
       </c>
     </row>
     <row r="244">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>6.25690955733657</v>
+        <v>6.32705568722641</v>
       </c>
     </row>
     <row r="246">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>5.189802452174</v>
+        <v>5.184697859174</v>
       </c>
     </row>
     <row r="247">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>11.457937474347</v>
+        <v>11.463500564713</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>5.67040571241606</v>
+        <v>5.67041007973601</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-7.0315078553338</v>
+        <v>-3.11048253000014</v>
       </c>
     </row>
     <row r="253">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>6.21872880742968</v>
+        <v>6.40434169232056</v>
       </c>
     </row>
     <row r="255">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>4.761688537775</v>
+        <v>4.752294522775</v>
       </c>
     </row>
     <row r="256">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>11.653471944705</v>
+        <v>11.664881266646</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>5.66970360576226</v>
+        <v>5.66974540856182</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>2.32447789166705</v>
+        <v>7.18439839600082</v>
       </c>
     </row>
     <row r="262">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>6.317971896017</v>
+        <v>6.39822480776304</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>4.816750195143</v>
+        <v>4.805554495143</v>
       </c>
     </row>
     <row r="265">
@@ -5805,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="F267" t="n">
-        <v>16.22308950699</v>
+        <v>16.22306925699</v>
       </c>
     </row>
     <row r="268">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>11.244402585362</v>
+        <v>11.258095258985</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>5.33955283707314</v>
+        <v>5.33958317765955</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>-3.23324490166689</v>
+        <v>3.3398823013337</v>
       </c>
     </row>
     <row r="271">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>6.27567463217475</v>
+        <v>6.37115678735377</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>4.485750149789</v>
+        <v>4.491903754789</v>
       </c>
     </row>
     <row r="274">
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
       <c r="F276" t="n">
-        <v>13.060068105232</v>
+        <v>13.060058385232</v>
       </c>
     </row>
     <row r="277">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>10.436996057076</v>
+        <v>10.451275760549</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>5.03764691165082</v>
+        <v>5.03767835829892</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>-5.35430461666727</v>
+        <v>1.81250212033337</v>
       </c>
     </row>
     <row r="280">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>6.19625278585282</v>
+        <v>6.37627935907797</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>4.306466127919</v>
+        <v>4.311825367919</v>
       </c>
     </row>
     <row r="283">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>6.40866932314395</v>
+        <v>6.40857987726995</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>13.408707176942</v>
+        <v>13.408690166942</v>
       </c>
     </row>
     <row r="286">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>9.975335383349</v>
+        <v>9.993082826581</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>5.33968423395294</v>
+        <v>5.33603307426868</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>3.47424073366708</v>
+        <v>11.3583110480011</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>1.817528069711</v>
+        <v>1.817963033821</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>6.07491575625585</v>
+        <v>6.06842412581477</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>4.220061700122</v>
+        <v>4.182420120157</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>0.0915277432785379</v>
+        <v>0.0915211921394774</v>
       </c>
     </row>
     <row r="293">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>5.86822551124527</v>
+        <v>5.87030400999847</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>12.911374500596</v>
+        <v>12.907462319986</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>9.776825679449</v>
+        <v>9.821830834952</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>4.97937244938479</v>
+        <v>4.97790384638104</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>4.44298219033379</v>
+        <v>12.0664175743345</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>1.726605830173</v>
+        <v>1.726564258893</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>6.19545422548544</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>3.784465673163</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.125594748912866</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>5.05192897775291</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>10.09057697745</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>9.441336483744</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>4.71859934184675</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>11.9984165126676</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>1.647422895901</v>
       </c>
     </row>
   </sheetData>
